--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-17-randarray-Complete.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-17-randarray-Complete.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Advanced/Course Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Advanced Course Files\Instructor Files\Section 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C3E2DF2-A85A-485E-92CD-60397AD27CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF12F7B-45FA-4573-B7AD-F0BECB7757BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
   </bookViews>
   <sheets>
     <sheet name="RANDARRAY" sheetId="1" r:id="rId1"/>
@@ -34,8 +34,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>Big Drop Bungee</t>
   </si>
@@ -129,8 +151,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="0.000000000"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -176,7 +198,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -193,12 +215,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -206,10 +308,23 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -483,44 +598,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E86906-9D4F-417C-B01C-B523EEC5EA67}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.69921875" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" customWidth="1"/>
+    <col min="5" max="5" width="15.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="14.09765625" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="11.75" customWidth="1"/>
-    <col min="10" max="10" width="13.375" customWidth="1"/>
-    <col min="11" max="11" width="12.625" customWidth="1"/>
-    <col min="12" max="12" width="12.125" customWidth="1"/>
-    <col min="13" max="13" width="13.875" customWidth="1"/>
+    <col min="9" max="9" width="11.69921875" customWidth="1"/>
+    <col min="10" max="10" width="13.3984375" customWidth="1"/>
+    <col min="11" max="11" width="12.59765625" customWidth="1"/>
+    <col min="12" max="12" width="12.09765625" customWidth="1"/>
+    <col min="13" max="13" width="13.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G4" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="7"/>
@@ -528,176 +651,375 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6">
         <v>1.0736110963420309E-2</v>
       </c>
+      <c r="D6" cm="1">
+        <f t="array" aca="1" ref="D6:D25" ca="1">_xlfn.RANDARRAY(COUNTA(A6:A25),1)</f>
+        <v>0.23447995973025915</v>
+      </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6" s="11" cm="1">
+        <f t="array" aca="1" ref="G6:J9" ca="1">_xlfn.RANDARRAY(4,4,5,100,FALSE)</f>
+        <v>46.175200669139358</v>
+      </c>
+      <c r="H6" s="12">
+        <f ca="1"/>
+        <v>22.438770507214898</v>
+      </c>
+      <c r="I6" s="12">
+        <f ca="1"/>
+        <v>11.62162233723231</v>
+      </c>
+      <c r="J6" s="13">
+        <f ca="1"/>
+        <v>82.521878139019449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <v>9.6278832508713386E-2</v>
       </c>
+      <c r="D7">
+        <f ca="1"/>
+        <v>0.56031494268400217</v>
+      </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G7" s="14">
+        <f ca="1"/>
+        <v>78.629270369467065</v>
+      </c>
+      <c r="H7" s="9">
+        <f ca="1"/>
+        <v>10.100160616855447</v>
+      </c>
+      <c r="I7" s="9">
+        <f ca="1"/>
+        <v>63.364755255020697</v>
+      </c>
+      <c r="J7" s="15">
+        <f ca="1"/>
+        <v>41.11675898262655</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8">
         <v>0.11889559628345236</v>
       </c>
+      <c r="D8">
+        <f ca="1"/>
+        <v>0.42127241595595422</v>
+      </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G8" s="14">
+        <f ca="1"/>
+        <v>24.287699289402838</v>
+      </c>
+      <c r="H8" s="9">
+        <f ca="1"/>
+        <v>89.696093283210729</v>
+      </c>
+      <c r="I8" s="9">
+        <f ca="1"/>
+        <v>64.832631763985987</v>
+      </c>
+      <c r="J8" s="15">
+        <f ca="1"/>
+        <v>20.424279671676089</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9">
         <v>0.14617154534333832</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <f ca="1"/>
+        <v>0.43501713153105603</v>
+      </c>
+      <c r="G9" s="16">
+        <f ca="1"/>
+        <v>84.614889531442472</v>
+      </c>
+      <c r="H9" s="17">
+        <f ca="1"/>
+        <v>94.240297749885272</v>
+      </c>
+      <c r="I9" s="17">
+        <f ca="1"/>
+        <v>93.35912286037636</v>
+      </c>
+      <c r="J9" s="18">
+        <f ca="1"/>
+        <v>41.192142734818688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10">
         <v>0.16710573644945548</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <f ca="1"/>
+        <v>0.88112420359518273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="5">
         <v>0.20015975033241462</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <f ca="1"/>
+        <v>0.26196847896565822</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
         <v>0.24362651924241452</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <f ca="1"/>
+        <v>1.347826150120679E-2</v>
+      </c>
+      <c r="G12" s="19" cm="1">
+        <f t="array" aca="1" ref="G12:J15" ca="1">_xlfn.RANDARRAY(4,4,1,100,TRUE)</f>
+        <v>100</v>
+      </c>
+      <c r="H12" s="20">
+        <f ca="1"/>
+        <v>29</v>
+      </c>
+      <c r="I12" s="20">
+        <f ca="1"/>
+        <v>74</v>
+      </c>
+      <c r="J12" s="13">
+        <f ca="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <v>0.30329822796257089</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <f ca="1"/>
+        <v>0.77425336072393058</v>
+      </c>
+      <c r="G13" s="21">
+        <f ca="1"/>
+        <v>35</v>
+      </c>
+      <c r="H13" s="10">
+        <f ca="1"/>
+        <v>41</v>
+      </c>
+      <c r="I13" s="10">
+        <f ca="1"/>
+        <v>14</v>
+      </c>
+      <c r="J13" s="15">
+        <f ca="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14">
         <v>0.3051430715382184</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <f ca="1"/>
+        <v>0.15435680475339963</v>
+      </c>
+      <c r="G14" s="21">
+        <f ca="1"/>
+        <v>58</v>
+      </c>
+      <c r="H14" s="10">
+        <f ca="1"/>
+        <v>73</v>
+      </c>
+      <c r="I14" s="10">
+        <f ca="1"/>
+        <v>46</v>
+      </c>
+      <c r="J14" s="15">
+        <f ca="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15">
         <v>0.31432415857184237</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <f ca="1"/>
+        <v>0.7464001906266815</v>
+      </c>
+      <c r="G15" s="16">
+        <f ca="1"/>
+        <v>70</v>
+      </c>
+      <c r="H15" s="17">
+        <f ca="1"/>
+        <v>88</v>
+      </c>
+      <c r="I15" s="17">
+        <f ca="1"/>
+        <v>12</v>
+      </c>
+      <c r="J15" s="18">
+        <f ca="1"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16">
         <v>0.43897579683728094</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <f ca="1"/>
+        <v>0.85381309056086119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
       <c r="B17">
         <v>0.49413576251895108</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <f ca="1"/>
+        <v>0.85524589481832791</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
       <c r="B18">
         <v>0.703731752205214</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D18" s="5">
+        <f ca="1"/>
+        <v>0.94210655022023726</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="B19">
         <v>0.721795594028388</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <f ca="1"/>
+        <v>0.7910550371185967</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
       <c r="B20">
         <v>0.73866236092307824</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <f ca="1"/>
+        <v>0.63356284967243814</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="5">
         <v>0.78094247497134606</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <f ca="1"/>
+        <v>0.85182939762626697</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22">
         <v>0.80670344201554389</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <f ca="1"/>
+        <v>0.2521674573222632</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23">
         <v>0.91710031096329092</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <f ca="1"/>
+        <v>0.65821009027004451</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
       <c r="B24">
         <v>0.9707994747833335</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <f ca="1"/>
+        <v>0.77068640869636096</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
       <c r="B25">
         <v>0.97337927443147265</v>
+      </c>
+      <c r="D25">
+        <f ca="1"/>
+        <v>0.75696294735275549</v>
       </c>
     </row>
   </sheetData>
@@ -711,30 +1033,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E5DA88-57AA-4696-ACD9-4F0AC88BC360}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="15.09765625" customWidth="1"/>
+    <col min="7" max="7" width="9.296875" customWidth="1"/>
+    <col min="8" max="8" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
@@ -744,8 +1068,14 @@
       <c r="C6" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -754,10 +1084,18 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">RANDBETWEEN(DATE(2005,1,1),DATE(2021,12,31))</f>
-        <v>39701</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>42114</v>
+      </c>
+      <c r="G7">
+        <f ca="1">RANDBETWEEN(25000,50000)</f>
+        <v>36538</v>
+      </c>
+      <c r="H7">
+        <f ca="1">RANDBETWEEN(DATE(2005,1,1),DATE(2021,12,31))</f>
+        <v>40870</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -766,10 +1104,18 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" ref="C8:C26" ca="1" si="0">RANDBETWEEN(DATE(2005,1,1),DATE(2021,12,31))</f>
-        <v>44416</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>42376</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G26" ca="1" si="1">RANDBETWEEN(25000,50000)</f>
+        <v>26672</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H26" ca="1" si="2">RANDBETWEEN(DATE(2005,1,1),DATE(2021,12,31))</f>
+        <v>40094</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -778,10 +1124,18 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>39105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>40339</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="1"/>
+        <v>27284</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ca="1" si="2"/>
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -790,10 +1144,18 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>39737</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>38545</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="1"/>
+        <v>41052</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ca="1" si="2"/>
+        <v>39710</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -802,10 +1164,18 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>39421</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>43011</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="1"/>
+        <v>35880</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ca="1" si="2"/>
+        <v>41118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -814,10 +1184,18 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>42803</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>39083</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="1"/>
+        <v>36839</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ca="1" si="2"/>
+        <v>40360</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -826,10 +1204,18 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>38423</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>42623</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="1"/>
+        <v>38822</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ca="1" si="2"/>
+        <v>43391</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -838,10 +1224,18 @@
       </c>
       <c r="C14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>39611</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>44003</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="1"/>
+        <v>48184</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ca="1" si="2"/>
+        <v>40770</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -850,10 +1244,18 @@
       </c>
       <c r="C15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>40929</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>42000</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="1"/>
+        <v>41790</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="2"/>
+        <v>43107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -862,10 +1264,18 @@
       </c>
       <c r="C16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>39554</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>41720</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="1"/>
+        <v>37282</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="2"/>
+        <v>43781</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -874,10 +1284,18 @@
       </c>
       <c r="C17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>39102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>42058</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="1"/>
+        <v>39325</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ca="1" si="2"/>
+        <v>43219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -886,10 +1304,18 @@
       </c>
       <c r="C18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>42407</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>43666</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="1"/>
+        <v>32021</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="2"/>
+        <v>38807</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -898,10 +1324,18 @@
       </c>
       <c r="C19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>39520</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>39233</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="1"/>
+        <v>33144</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ca="1" si="2"/>
+        <v>41272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -910,10 +1344,18 @@
       </c>
       <c r="C20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>39735</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>41686</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="1"/>
+        <v>30891</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ca="1" si="2"/>
+        <v>39459</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -922,10 +1364,18 @@
       </c>
       <c r="C21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>40562</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>40593</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="1"/>
+        <v>48485</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="2"/>
+        <v>43017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -934,10 +1384,18 @@
       </c>
       <c r="C22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>38589</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>42239</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ca="1" si="1"/>
+        <v>36137</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ca="1" si="2"/>
+        <v>41930</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -946,10 +1404,18 @@
       </c>
       <c r="C23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>41329</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>41984</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ca="1" si="1"/>
+        <v>43735</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ca="1" si="2"/>
+        <v>43027</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -958,10 +1424,18 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>39586</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>38619</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="1"/>
+        <v>33784</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="2"/>
+        <v>41376</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -970,10 +1444,18 @@
       </c>
       <c r="C25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>40085</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>41242</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ca="1" si="1"/>
+        <v>44666</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ca="1" si="2"/>
+        <v>40091</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -982,7 +1464,15 @@
       </c>
       <c r="C26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>39663</v>
+        <v>40664</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ca="1" si="1"/>
+        <v>31517</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ca="1" si="2"/>
+        <v>40001</v>
       </c>
     </row>
   </sheetData>
